--- a/院方API串接文檔 20230329V0.xlsx
+++ b/院方API串接文檔 20230329V0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\調劑台管理系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E406CE9-EDE4-4655-9E30-F38886C5803F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA2D34-EFCC-4A70-840C-7D4828466662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="691" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="691" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="醫令資料" sheetId="6" r:id="rId1"/>
@@ -485,13 +485,6 @@
   </si>
   <si>
     <t>操作類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"-1":扣帳不亮燈 
-"-2":取消指定電腦名稱所有動作
-"1": 領藥 
-"0": 儲位搜尋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -960,6 +953,14 @@
   </si>
   <si>
     <t>取得動作類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-1":扣帳不亮燈 
+"-2":取消指定電腦名稱所有動作
+"1": 領藥 
+"0": 儲位搜尋
+"A":系統是否待命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,7 +1565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1637,6 +1638,42 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1694,6 +1731,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1703,6 +1746,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1720,54 +1766,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2134,7 +2132,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2149,20 +2147,20 @@
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -2201,12 +2199,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2329,86 +2327,86 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
     </row>
     <row r="30" spans="1:4" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2451,15 +2449,15 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>124</v>
+      <c r="B2" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
@@ -2468,84 +2466,84 @@
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>159</v>
+        <v>117</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>160</v>
+        <v>129</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="D10" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -2561,56 +2559,56 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2619,10 +2617,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2631,7 +2629,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>39</v>
@@ -2643,10 +2641,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>26</v>
@@ -2655,10 +2653,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>26</v>
@@ -2667,7 +2665,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>40</v>
@@ -2682,7 +2680,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>26</v>
@@ -2690,50 +2688,50 @@
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:4" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2775,33 +2773,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="63"/>
+        <v>150</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>104</v>
+      <c r="B2" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
@@ -2810,284 +2808,284 @@
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="57" t="s">
-        <v>164</v>
+      <c r="G2" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K3" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="F5" s="52" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="F5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
+      <c r="A6" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="F6" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="31"/>
       <c r="F7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="66"/>
+      <c r="C8" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="32"/>
       <c r="F8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="66"/>
+      <c r="H8" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="32"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="66"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="66"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="32"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="66"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="32"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="66"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="66"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="66"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="F13" s="24" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="F13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="10"/>
       <c r="F14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="D15" s="10"/>
       <c r="F15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="10"/>
       <c r="F16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="10"/>
       <c r="F17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="H17" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="C18" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="10"/>
       <c r="F18" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="C19" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="10"/>
       <c r="F19" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="H19" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -3097,104 +3095,104 @@
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="F20" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="H20" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="F21" s="24" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="F21" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="F22" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
+      <c r="A22" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="F22" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="35"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="35"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="35"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="35"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="35"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="35"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9" ht="272.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I26"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D26"/>
-    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3205,7 +3203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDD2D01-2442-41BA-9533-66C5DD9CDD68}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3223,388 +3221,388 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="F1" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="63"/>
+      <c r="F1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>203</v>
-      </c>
-    </row>
     <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="B6" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="C6" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="D6" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="C7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="56" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B24" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="56"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="56"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="B26" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="C26" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="56"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="56" t="s">
+      <c r="C27" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="56"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="B28" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="C28" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="56"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="C29" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="56"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="B30" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="C30" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="56"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="B31" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="C31" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="56"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="56" t="s">
+      <c r="B33" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="56"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="56"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="56"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="56"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="56"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="56"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="56"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="56"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="56"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="56" t="s">
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="56"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="56"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+      <c r="B34" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="C34" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="56"/>
+      <c r="D34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3639,19 +3637,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>125</v>
+      <c r="B2" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
@@ -3660,20 +3658,20 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -3682,29 +3680,29 @@
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -3724,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF91BDC8-A129-43A4-B206-103663A0BFA8}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3749,7 +3747,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -3759,15 +3757,15 @@
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>126</v>
+      <c r="B2" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
@@ -3776,8 +3774,8 @@
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="57" t="s">
-        <v>127</v>
+      <c r="H2" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
@@ -3786,32 +3784,32 @@
     </row>
     <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="G4" s="49" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="G4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="46" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="G5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -3840,12 +3838,12 @@
         <v>13</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -3892,12 +3890,12 @@
         <v>57</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -4033,7 +4031,7 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>72</v>
       </c>
@@ -4044,7 +4042,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>65</v>
@@ -4076,12 +4074,12 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
       <c r="G19" s="17" t="s">
         <v>69</v>
       </c>
@@ -4133,7 +4131,7 @@
       </c>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>-2</v>
       </c>
@@ -4152,7 +4150,7 @@
         <v>57</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4164,10 +4162,10 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
